--- a/biology/Botanique/Hydnodontaceae/Hydnodontaceae.xlsx
+++ b/biology/Botanique/Hydnodontaceae/Hydnodontaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hydnodontaceae sont une famille de champignons basidiomycètes de l'ordre des Trechisporales.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (18 janvier 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (18 janvier 2023) :
 Aegeritina Jülich, 1984
 Allotrechispora L.W. Zhou &amp; S.L. Liu, 2022
 Brevicellicium K.H. Larss. &amp; Hjortstam, 1978
@@ -558,10 +572,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Hydnodontaceae Jülich, 1982[1].
-Hydnodontaceae a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Hydnodontaceae Jülich, 1982.
+Hydnodontaceae a pour synonymes :
 Subulicystidiaceae Jülich, 1981
 Trechisporaceae Zmitr., 2006</t>
         </is>
@@ -591,7 +607,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>W. Jülich, « Higher taxa of Basidiomycetes », Bibliotheca Mycologica, vol. 85,‎ 1982, p. 1-485 (ISSN 0067-8066)</t>
         </is>
